--- a/aoutogen_importdata2.xlsx
+++ b/aoutogen_importdata2.xlsx
@@ -15,6 +15,9 @@
     <sheet name="import" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="紀要論文___Departmental_Bulletin_Paper_9" localSheetId="0">import!$C$1:$FL$5</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,8 +27,185 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="紀要論文 _ Departmental Bulletin Paper(9)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\libso23-user\OneDrive - The University of Tokyo\ドキュメント\JPCOAR\インポート\紀要論文 _ Departmental Bulletin Paper(9).csv" tab="0" comma="1">
+      <textFields count="166">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="1374">
   <si>
     <t>#ItemType</t>
   </si>
@@ -4109,43 +4289,50 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>著者[0].作成者姓[1].姓</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>著者[0].作成者姓[1].言語</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>.metadata.item_creator[0].familyNames[1].familyName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>.metadata.item_creator[0].familyNames[1].familyNameLang</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>著者[0].作成者名[1].名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>著者[0].作成者名[1].言語</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>.metadata.item_creator[0].givenNames[1].givenNameLang</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>.metadata.item_creator[0].givenNames[1].givenName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>parent</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>連番の画像を生成するPythonスクリプト2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紀要論文 / Departmental Bulletin Paper(9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資源タイプ.タイプ </t>
+  </si>
+  <si>
+    <t>資源タイプ.資源</t>
+  </si>
+  <si>
+    <t>Allow Multiple, Required</t>
+  </si>
+  <si>
+    <t>山田00, 太郎00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yamada.tarou00@hoge.hoge</t>
+  </si>
+  <si>
+    <t>山田00</t>
+  </si>
+  <si>
+    <t>太郎00</t>
+  </si>
+  <si>
+    <t>DUMMY01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DUMMY02</t>
+  </si>
+  <si>
+    <t>DUMMY03</t>
+  </si>
+  <si>
+    <t>.metadata.path[0]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4153,9 +4340,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -4262,7 +4450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4279,16 +4467,10 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -4344,6 +4526,30 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4359,6 +4565,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="紀要論文 _ Departmental Bulletin Paper(9)" connectionId="1" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4624,62 +4834,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FT31"/>
+  <dimension ref="A1:FL23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="14"/>
-    <col min="2" max="2" width="8.796875" style="26"/>
-    <col min="5" max="5" width="18.19921875" style="7" customWidth="1"/>
-    <col min="7" max="15" width="5" customWidth="1"/>
-    <col min="20" max="42" width="7.796875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="12"/>
+    <col min="2" max="2" width="8.796875" style="24"/>
+    <col min="3" max="3" width="13.796875" customWidth="1"/>
+    <col min="4" max="4" width="39.296875" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" style="6" customWidth="1"/>
+    <col min="7" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="8.59765625" style="26" customWidth="1"/>
+    <col min="14" max="15" width="5" customWidth="1"/>
+    <col min="20" max="24" width="7.796875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="11.09765625" style="8" customWidth="1"/>
+    <col min="26" max="26" width="17.19921875" style="8" customWidth="1"/>
+    <col min="27" max="42" width="7.796875" style="8" customWidth="1"/>
+    <col min="164" max="164" width="8.796875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:176" s="2" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:168" s="2" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+      <c r="BB1"/>
+      <c r="BC1"/>
+      <c r="BD1"/>
+      <c r="BE1"/>
+      <c r="BF1"/>
+      <c r="BG1"/>
+      <c r="BH1"/>
+      <c r="BI1"/>
+      <c r="BJ1"/>
+      <c r="BK1"/>
+      <c r="BL1"/>
+      <c r="BM1"/>
+      <c r="BN1"/>
+      <c r="BO1"/>
+      <c r="BP1"/>
+      <c r="BQ1"/>
+      <c r="BR1"/>
+      <c r="BS1"/>
+      <c r="BT1"/>
+      <c r="BU1"/>
+      <c r="BV1"/>
+      <c r="BW1"/>
+      <c r="BX1"/>
+      <c r="BY1"/>
+      <c r="BZ1"/>
+      <c r="CA1"/>
+      <c r="CB1"/>
+      <c r="CC1"/>
+      <c r="CD1"/>
+      <c r="CE1"/>
+      <c r="CF1"/>
+      <c r="CG1"/>
+      <c r="CH1"/>
+      <c r="CI1"/>
+      <c r="CJ1"/>
+      <c r="CK1"/>
+      <c r="CL1"/>
+      <c r="CM1"/>
+      <c r="CN1"/>
+      <c r="CO1"/>
+      <c r="CP1"/>
+      <c r="CQ1"/>
+      <c r="CR1"/>
+      <c r="CS1"/>
+      <c r="CT1"/>
+      <c r="CU1"/>
+      <c r="CV1"/>
+      <c r="CW1"/>
+      <c r="CX1"/>
+      <c r="CY1"/>
+      <c r="CZ1"/>
+      <c r="DA1"/>
+      <c r="DB1"/>
+      <c r="DC1"/>
+      <c r="DD1"/>
+      <c r="DE1"/>
+      <c r="DF1"/>
+      <c r="DG1"/>
+      <c r="DH1"/>
+      <c r="DI1"/>
+      <c r="DJ1"/>
+      <c r="DK1"/>
+      <c r="DL1"/>
+      <c r="DM1"/>
+      <c r="DN1"/>
+      <c r="DO1"/>
+      <c r="DP1"/>
+      <c r="DQ1"/>
+      <c r="DR1"/>
+      <c r="DS1"/>
+      <c r="DT1"/>
+      <c r="DU1"/>
+      <c r="DV1"/>
+      <c r="DW1"/>
+      <c r="DX1"/>
+      <c r="DY1"/>
+      <c r="DZ1"/>
+      <c r="EA1"/>
+      <c r="EB1"/>
+      <c r="EC1"/>
+      <c r="ED1"/>
+      <c r="EE1"/>
+      <c r="EF1"/>
+      <c r="EG1"/>
+      <c r="EH1"/>
+      <c r="EI1"/>
+      <c r="EJ1"/>
+      <c r="EK1"/>
+      <c r="EL1"/>
+      <c r="EM1"/>
+      <c r="EN1"/>
+      <c r="EO1"/>
+      <c r="EP1"/>
+      <c r="EQ1"/>
+      <c r="ER1"/>
+      <c r="ES1"/>
+      <c r="ET1"/>
+      <c r="EU1"/>
+      <c r="EV1"/>
+      <c r="EW1"/>
+      <c r="EX1"/>
+      <c r="EY1"/>
+      <c r="EZ1"/>
+      <c r="FA1"/>
+      <c r="FB1"/>
+      <c r="FC1"/>
+      <c r="FD1"/>
+      <c r="FE1"/>
+      <c r="FF1"/>
+      <c r="FG1"/>
+      <c r="FH1" s="28"/>
+      <c r="FI1"/>
+      <c r="FJ1"/>
+      <c r="FK1"/>
+      <c r="FL1"/>
     </row>
-    <row r="2" spans="1:176" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="1:168" s="2" customFormat="1" ht="270" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>1359</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -4688,8 +5046,8 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
+      <c r="E2" s="2" t="s">
+        <v>1373</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -4722,495 +5080,471 @@
         <v>125</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="U2" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="T2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="U2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="V2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="W2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="X2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="Y2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="Z2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AA2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AD2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AB2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AC2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AH2" s="12" t="s">
-        <v>1362</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>1363</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AD2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AE2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AL2" s="12" t="s">
-        <v>1367</v>
-      </c>
-      <c r="AM2" s="12" t="s">
-        <v>1366</v>
-      </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AF2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AG2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AH2" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="AI2" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>448</v>
+      </c>
       <c r="AQ2" s="2" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="EK2" s="2" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="EL2" s="2" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="EM2" s="2" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="EO2" s="2" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="EP2" s="2" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="EQ2" s="2" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="ER2" s="2" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="EW2" s="2" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="EX2" s="2" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="EY2" s="2" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="EZ2" s="2" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="FA2" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="FB2" s="2" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="FC2" s="2" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="FD2" s="2" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="FE2" s="2" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="FF2" s="2" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="FG2" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="FH2" s="2" t="s">
-        <v>562</v>
+        <v>569</v>
+      </c>
+      <c r="FH2" s="27" t="s">
+        <v>570</v>
       </c>
       <c r="FI2" s="2" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="FJ2" s="2" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="FK2" s="2" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="FL2" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="FM2" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="FN2" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="FO2" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="FP2" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="FQ2" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="FR2" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="FS2" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="FT2" s="2" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:176" s="2" customFormat="1" ht="79.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>1359</v>
+    <row r="3" spans="1:168" s="2" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="10">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>1370</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>575</v>
@@ -5218,7 +5552,7 @@
       <c r="D3" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>577</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -5252,1011 +5586,967 @@
         <v>697</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="U3" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="T3" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="U3" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="V3" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="W3" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="X3" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="Y3" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="Z3" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AA3" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="AD3" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AB3" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AC3" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="AH3" s="12" t="s">
-        <v>1360</v>
-      </c>
-      <c r="AI3" s="12" t="s">
-        <v>1361</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="AD3" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="AK3" s="8" t="s">
+      <c r="AE3" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AF3" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="BM3" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="BN3" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="BP3" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="BQ3" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BR3" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="BS3" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="BT3" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="AM3" s="12" t="s">
-        <v>1365</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="AO3" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="AP3" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="BH3" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="BI3" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="BM3" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="BN3" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="BO3" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="BP3" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="BQ3" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="BR3" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="BS3" s="2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="BT3" s="2" t="s">
-        <v>1043</v>
-      </c>
       <c r="BU3" s="2" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
       <c r="BV3" s="2" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="BW3" s="2" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="BX3" s="2" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="BY3" s="2" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
       <c r="BZ3" s="2" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="CA3" s="2" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
       <c r="CB3" s="2" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="CC3" s="2" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
       <c r="CD3" s="2" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
       <c r="CE3" s="2" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
       <c r="CF3" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="CG3" s="2" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
       <c r="CH3" s="2" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="CI3" s="2" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="CJ3" s="2" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="CK3" s="2" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
       <c r="CL3" s="2" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="CM3" s="2" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
       <c r="CN3" s="2" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="CO3" s="2" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
       <c r="CP3" s="2" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="CQ3" s="2" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="CR3" s="2" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="CS3" s="2" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="CT3" s="2" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="CU3" s="2" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="CV3" s="2" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="CW3" s="2" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="CX3" s="2" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="CY3" s="2" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="CZ3" s="2" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
       <c r="DA3" s="2" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
       <c r="DB3" s="2" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="DC3" s="2" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="DD3" s="2" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="DE3" s="2" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="DF3" s="2" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="DG3" s="2" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="DH3" s="2" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="DI3" s="2" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="DJ3" s="2" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="DK3" s="2" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="DL3" s="2" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="DM3" s="2" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="DN3" s="2" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="DO3" s="2" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="DP3" s="2" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="DQ3" s="2" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="DR3" s="2" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="DS3" s="2" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="DT3" s="2" t="s">
-        <v>1095</v>
+        <v>1103</v>
       </c>
       <c r="DU3" s="2" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="DV3" s="2" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="DW3" s="2" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="DX3" s="2" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="DY3" s="2" t="s">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="DZ3" s="2" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="EA3" s="2" t="s">
-        <v>1102</v>
+        <v>1110</v>
       </c>
       <c r="EB3" s="2" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="EC3" s="2" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="ED3" s="2" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="EE3" s="2" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="EF3" s="2" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="EG3" s="2" t="s">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="EH3" s="2" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
       <c r="EI3" s="2" t="s">
-        <v>1110</v>
+        <v>1118</v>
       </c>
       <c r="EJ3" s="2" t="s">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="EK3" s="2" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
       <c r="EL3" s="2" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="EM3" s="2" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="EN3" s="2" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="EO3" s="2" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="EP3" s="2" t="s">
-        <v>1117</v>
+        <v>1125</v>
       </c>
       <c r="EQ3" s="2" t="s">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="ER3" s="2" t="s">
-        <v>1119</v>
+        <v>1127</v>
       </c>
       <c r="ES3" s="2" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="ET3" s="2" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="EU3" s="2" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
       <c r="EV3" s="2" t="s">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="EW3" s="2" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
       <c r="EX3" s="2" t="s">
-        <v>1125</v>
+        <v>1133</v>
       </c>
       <c r="EY3" s="2" t="s">
-        <v>1126</v>
+        <v>1134</v>
       </c>
       <c r="EZ3" s="2" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="FA3" s="2" t="s">
-        <v>1128</v>
+        <v>1136</v>
       </c>
       <c r="FB3" s="2" t="s">
-        <v>1129</v>
+        <v>1137</v>
       </c>
       <c r="FC3" s="2" t="s">
-        <v>1130</v>
+        <v>1138</v>
       </c>
       <c r="FD3" s="2" t="s">
-        <v>1131</v>
+        <v>1139</v>
       </c>
       <c r="FE3" s="2" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="FF3" s="2" t="s">
-        <v>1133</v>
+        <v>1141</v>
       </c>
       <c r="FG3" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="FH3" s="2" t="s">
-        <v>1135</v>
+        <v>1142</v>
+      </c>
+      <c r="FH3" s="27" t="s">
+        <v>1143</v>
       </c>
       <c r="FI3" s="2" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="FJ3" s="2" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="FK3" s="2" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="FL3" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="FM3" s="2" t="s">
-        <v>1140</v>
-      </c>
-      <c r="FN3" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="FO3" s="2" t="s">
-        <v>1142</v>
-      </c>
-      <c r="FP3" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="FQ3" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="FR3" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="FS3" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="FT3" s="2" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="4" spans="1:176" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
-      <c r="B4" s="24"/>
+    <row r="4" spans="1:168" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.45">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>1371</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="BJ4" s="2" t="s">
+      <c r="BB4" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="CB4" s="2" t="s">
+      <c r="BT4" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="CC4" s="2" t="s">
+      <c r="BU4" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="CE4" s="2" t="s">
+      <c r="BW4" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="CF4" s="2" t="s">
+      <c r="BX4" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="FC4" s="2" t="s">
+      <c r="EU4" s="2" t="s">
         <v>1149</v>
       </c>
+      <c r="FH4" s="27"/>
     </row>
-    <row r="5" spans="1:176" s="2" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:168" s="2" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C5" t="s">
         <v>1148</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>1150</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G5" t="s">
         <v>1151</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="H5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" t="s">
         <v>1151</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" t="s">
         <v>1151</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AD5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AE5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AF5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AG5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AH5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AI5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AJ5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AK5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AO5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AP5" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AS5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AV5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AX5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AZ5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BA5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BB5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BC5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BD5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BE5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BF5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BG5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BH5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BK5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BL5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BM5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BN5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BO5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BP5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BQ5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BR5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BS5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BT5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BU5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BV5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BW5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BX5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BY5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BZ5" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="CA5" s="2" t="s">
+      <c r="N5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="BS5" t="s">
         <v>1151</v>
       </c>
-      <c r="CB5" s="2" t="s">
+      <c r="BT5" t="s">
         <v>1151</v>
       </c>
-      <c r="CL5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="CM5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="CN5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="CO5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="CP5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="CQ5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="CR5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="CS5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="CT5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="CU5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="CV5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="CW5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="CX5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="CY5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="CZ5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DA5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DB5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DC5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DD5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DE5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DF5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DG5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DH5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DM5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DN5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DO5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DP5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DQ5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DR5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DS5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DT5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DU5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DV5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DW5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DX5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DY5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DZ5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EA5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EB5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EC5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="ED5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EE5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EF5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EG5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EH5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EI5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EJ5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EK5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EL5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EM5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EN5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EO5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EP5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EQ5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="ER5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="ES5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="ET5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EU5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EV5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EW5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EX5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EY5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="EZ5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="FA5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="FB5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="FC5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="FD5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="FE5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="FF5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="FI5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="FJ5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="FK5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="FL5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="FM5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="FN5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="FO5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="FP5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="FQ5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="FR5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="FS5" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="FT5" s="2" t="s">
+      <c r="BU5"/>
+      <c r="BV5"/>
+      <c r="BW5"/>
+      <c r="BX5"/>
+      <c r="BY5"/>
+      <c r="BZ5"/>
+      <c r="CA5"/>
+      <c r="CB5"/>
+      <c r="CC5"/>
+      <c r="CD5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DA5"/>
+      <c r="DB5"/>
+      <c r="DC5"/>
+      <c r="DD5"/>
+      <c r="DE5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EN5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="ES5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="ET5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EU5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EW5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EX5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EY5"/>
+      <c r="EZ5"/>
+      <c r="FA5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FB5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FC5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FD5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FE5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FF5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FG5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FH5" s="28" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FI5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FJ5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FK5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FL5" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="6" spans="1:176" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="13">
+    <row r="6" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="23">
         <v>0</v>
       </c>
-      <c r="B6" s="25">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2001301</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>2057</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -6265,7 +6555,7 @@
       <c r="G6" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="25">
         <v>44581</v>
       </c>
       <c r="N6" s="3" t="s">
@@ -6280,971 +6570,870 @@
       <c r="Q6" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9" t="s">
-        <v>1192</v>
-      </c>
-      <c r="AC6" s="9" t="s">
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AA6" s="7" t="s">
         <v>1189</v>
       </c>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9">
+      <c r="AB6" s="11" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AE6" s="11" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AF6" s="7">
         <v>9000006688388</v>
       </c>
-      <c r="AO6" s="9" t="s">
+      <c r="AG6" s="7" t="s">
         <v>1193</v>
       </c>
-      <c r="AP6" s="9" t="s">
+      <c r="AH6" s="7" t="s">
         <v>1194</v>
       </c>
-      <c r="BZ6" s="3" t="s">
+      <c r="BR6" s="7" t="s">
         <v>1275</v>
       </c>
-      <c r="CA6" s="3" t="s">
+      <c r="BS6" s="7" t="s">
         <v>1276</v>
       </c>
-      <c r="CB6" s="3" t="s">
+      <c r="BT6" s="7" t="s">
         <v>1277</v>
       </c>
-      <c r="EQ6" s="4"/>
+      <c r="EI6" s="4"/>
+      <c r="FH6" s="14"/>
     </row>
-    <row r="7" spans="1:176" s="3" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="13">
-        <v>0</v>
-      </c>
-      <c r="B7" s="25">
+    <row r="7" spans="1:168" s="3" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="23">
         <v>1</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>746</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13" t="s">
+      <c r="M7" s="25"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11" t="s">
         <v>1195</v>
       </c>
-      <c r="AB7" s="13" t="s">
+      <c r="Z7" s="11" t="s">
         <v>1196</v>
       </c>
-      <c r="AC7" s="13" t="s">
+      <c r="AA7" s="11" t="s">
         <v>1189</v>
       </c>
-      <c r="AD7" s="13" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AE7" s="13" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AF7" s="13" t="s">
+      <c r="AB7" s="11" t="s">
         <v>1199</v>
       </c>
-      <c r="AG7" s="13" t="s">
+      <c r="AC7" s="11" t="s">
         <v>1189</v>
       </c>
-      <c r="AH7" s="13" t="s">
-        <v>1200</v>
-      </c>
-      <c r="AI7" s="13" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AJ7" s="13" t="s">
+      <c r="AD7" s="11" t="s">
         <v>1201</v>
       </c>
-      <c r="AK7" s="13" t="s">
+      <c r="AE7" s="11" t="s">
         <v>1189</v>
       </c>
-      <c r="AL7" s="13" t="s">
-        <v>1202</v>
-      </c>
-      <c r="AM7" s="13" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AN7" s="13">
+      <c r="AF7" s="11">
         <v>104364</v>
       </c>
-      <c r="AO7" s="13" t="s">
+      <c r="AG7" s="11" t="s">
         <v>1203</v>
       </c>
-      <c r="AP7" s="13"/>
+      <c r="AH7" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="BR7" s="7"/>
+      <c r="BS7" s="7"/>
+      <c r="BT7" s="7"/>
+      <c r="FH7" s="14"/>
     </row>
-    <row r="8" spans="1:176" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="13">
-        <v>0</v>
-      </c>
-      <c r="B8" s="25">
+    <row r="8" spans="1:168" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="11">
+        <v>3</v>
+      </c>
+      <c r="B8" s="23">
         <v>2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>747</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15" t="s">
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13" t="s">
         <v>1204</v>
       </c>
-      <c r="AB8" s="15" t="s">
+      <c r="Z8" s="13" t="s">
         <v>1205</v>
       </c>
-      <c r="AC8" s="15" t="s">
+      <c r="AA8" s="13" t="s">
         <v>1189</v>
       </c>
-      <c r="AD8" s="15" t="s">
-        <v>1206</v>
-      </c>
-      <c r="AE8" s="15" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AF8" s="15" t="s">
+      <c r="AB8" s="13" t="s">
         <v>1207</v>
       </c>
-      <c r="AG8" s="15" t="s">
+      <c r="AC8" s="13" t="s">
         <v>1189</v>
       </c>
-      <c r="AH8" s="15" t="s">
-        <v>1208</v>
-      </c>
-      <c r="AI8" s="15" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AJ8" s="15" t="s">
+      <c r="AD8" s="13" t="s">
         <v>1209</v>
       </c>
-      <c r="AK8" s="15" t="s">
+      <c r="AE8" s="13" t="s">
         <v>1189</v>
       </c>
-      <c r="AL8" s="15" t="s">
-        <v>1210</v>
-      </c>
-      <c r="AM8" s="15" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AN8" s="15">
+      <c r="AF8" s="13">
         <v>104363</v>
       </c>
-      <c r="AO8" s="15" t="s">
+      <c r="AG8" s="13" t="s">
         <v>1203</v>
       </c>
-      <c r="AP8" s="15"/>
+      <c r="AH8" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="BR8" s="8"/>
+      <c r="BS8" s="8"/>
+      <c r="BT8" s="8"/>
     </row>
-    <row r="9" spans="1:176" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="13">
-        <v>0</v>
-      </c>
-      <c r="B9" s="25">
+    <row r="9" spans="1:168" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="11">
         <v>3</v>
       </c>
-      <c r="E9" s="6">
+      <c r="B9" s="23">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
         <v>2321</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16" t="s">
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14" t="s">
         <v>1211</v>
       </c>
-      <c r="AB9" s="16" t="s">
+      <c r="Z9" s="14" t="s">
         <v>1212</v>
       </c>
-      <c r="AC9" s="16" t="s">
+      <c r="AA9" s="14" t="s">
         <v>1189</v>
       </c>
-      <c r="AD9" s="16" t="s">
-        <v>1213</v>
-      </c>
-      <c r="AE9" s="16" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AF9" s="16" t="s">
+      <c r="AB9" s="14" t="s">
         <v>1214</v>
       </c>
-      <c r="AG9" s="16" t="s">
+      <c r="AC9" s="14" t="s">
         <v>1189</v>
       </c>
-      <c r="AH9" s="16" t="s">
-        <v>1215</v>
-      </c>
-      <c r="AI9" s="16" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AJ9" s="16" t="s">
+      <c r="AD9" s="14" t="s">
         <v>1216</v>
       </c>
-      <c r="AK9" s="16" t="s">
+      <c r="AE9" s="14" t="s">
         <v>1189</v>
       </c>
-      <c r="AL9" s="16" t="s">
-        <v>1217</v>
-      </c>
-      <c r="AM9" s="16" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AN9" s="16">
+      <c r="AF9" s="14">
         <v>104365</v>
       </c>
-      <c r="AO9" s="16" t="s">
+      <c r="AG9" s="14" t="s">
         <v>1203</v>
       </c>
-      <c r="AP9" s="16"/>
+      <c r="AH9" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="BR9" s="8"/>
+      <c r="BS9" s="8"/>
+      <c r="BT9" s="8"/>
     </row>
-    <row r="10" spans="1:176" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="13">
-        <v>0</v>
-      </c>
-      <c r="B10" s="25">
+    <row r="10" spans="1:168" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="11">
+        <v>3</v>
+      </c>
+      <c r="B10" s="23">
         <v>4</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>1547</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11" t="s">
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9" t="s">
         <v>1218</v>
       </c>
-      <c r="AB10" s="11" t="s">
+      <c r="Z10" s="9" t="s">
         <v>1219</v>
       </c>
-      <c r="AC10" s="11" t="s">
+      <c r="AA10" s="9" t="s">
         <v>1189</v>
       </c>
-      <c r="AD10" s="11" t="s">
-        <v>1220</v>
-      </c>
-      <c r="AE10" s="11" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AF10" s="11" t="s">
+      <c r="AB10" s="9" t="s">
         <v>1221</v>
       </c>
-      <c r="AG10" s="11" t="s">
+      <c r="AC10" s="9" t="s">
         <v>1189</v>
       </c>
-      <c r="AH10" s="11" t="s">
-        <v>1222</v>
-      </c>
-      <c r="AI10" s="11" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AJ10" s="11" t="s">
+      <c r="AD10" s="9" t="s">
         <v>1223</v>
       </c>
-      <c r="AK10" s="11" t="s">
+      <c r="AE10" s="9" t="s">
         <v>1189</v>
       </c>
-      <c r="AL10" s="11" t="s">
-        <v>1224</v>
-      </c>
-      <c r="AM10" s="11" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AN10" s="11">
+      <c r="AF10" s="9">
         <v>104366</v>
       </c>
-      <c r="AO10" s="11" t="s">
+      <c r="AG10" s="9" t="s">
         <v>1203</v>
       </c>
-      <c r="AP10" s="11"/>
+      <c r="AH10" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="BR10" s="8"/>
+      <c r="BS10" s="8"/>
+      <c r="BT10" s="8"/>
     </row>
-    <row r="11" spans="1:176" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="13">
-        <v>0</v>
-      </c>
-      <c r="B11" s="25">
+    <row r="11" spans="1:168" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="23">
         <v>5</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>790</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="BR11" s="8"/>
+      <c r="BS11" s="8"/>
+      <c r="BT11" s="8"/>
     </row>
-    <row r="12" spans="1:176" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="13">
-        <v>0</v>
-      </c>
-      <c r="B12" s="25">
+    <row r="12" spans="1:168" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="11">
+        <v>3</v>
+      </c>
+      <c r="B12" s="23">
         <v>6</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>803</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18" t="s">
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16" t="s">
         <v>1225</v>
       </c>
-      <c r="AB12" s="18" t="s">
+      <c r="Z12" s="16" t="s">
         <v>1226</v>
       </c>
-      <c r="AC12" s="18" t="s">
+      <c r="AA12" s="16" t="s">
         <v>1189</v>
       </c>
-      <c r="AD12" s="18" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AE12" s="18" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AF12" s="18" t="s">
+      <c r="AB12" s="16" t="s">
         <v>1228</v>
       </c>
-      <c r="AG12" s="18" t="s">
+      <c r="AC12" s="16" t="s">
         <v>1189</v>
       </c>
-      <c r="AH12" s="18" t="s">
-        <v>1229</v>
-      </c>
-      <c r="AI12" s="18" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AJ12" s="18" t="s">
+      <c r="AD12" s="16" t="s">
         <v>1230</v>
       </c>
-      <c r="AK12" s="18" t="s">
+      <c r="AE12" s="16" t="s">
         <v>1189</v>
       </c>
-      <c r="AL12" s="18" t="s">
-        <v>1231</v>
-      </c>
-      <c r="AM12" s="18" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AN12" s="18">
+      <c r="AF12" s="16">
         <v>104367</v>
       </c>
-      <c r="AO12" s="18" t="s">
+      <c r="AG12" s="16" t="s">
         <v>1203</v>
       </c>
-      <c r="AP12" s="18"/>
+      <c r="AH12" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="BR12" s="8"/>
+      <c r="BS12" s="8"/>
+      <c r="BT12" s="8"/>
     </row>
-    <row r="13" spans="1:176" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="13">
-        <v>0</v>
-      </c>
-      <c r="B13" s="25">
+    <row r="13" spans="1:168" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="23">
         <v>7</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>2606</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19" t="s">
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17" t="s">
         <v>1232</v>
       </c>
-      <c r="AB13" s="19" t="s">
+      <c r="Z13" s="17" t="s">
         <v>1233</v>
       </c>
-      <c r="AC13" s="19" t="s">
+      <c r="AA13" s="17" t="s">
         <v>1189</v>
       </c>
-      <c r="AD13" s="19" t="s">
-        <v>1234</v>
-      </c>
-      <c r="AE13" s="19" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AF13" s="19" t="s">
+      <c r="AB13" s="17" t="s">
         <v>1235</v>
       </c>
-      <c r="AG13" s="19" t="s">
+      <c r="AC13" s="17" t="s">
         <v>1189</v>
       </c>
-      <c r="AH13" s="19" t="s">
-        <v>1236</v>
-      </c>
-      <c r="AI13" s="19" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AJ13" s="19" t="s">
+      <c r="AD13" s="17" t="s">
         <v>1237</v>
       </c>
-      <c r="AK13" s="19" t="s">
+      <c r="AE13" s="17" t="s">
         <v>1189</v>
       </c>
-      <c r="AL13" s="19" t="s">
-        <v>1238</v>
-      </c>
-      <c r="AM13" s="19" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AN13" s="19">
+      <c r="AF13" s="17">
         <v>104368</v>
       </c>
-      <c r="AO13" s="19" t="s">
+      <c r="AG13" s="17" t="s">
         <v>1203</v>
       </c>
-      <c r="AP13" s="19"/>
+      <c r="AH13" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="BR13" s="8"/>
+      <c r="BS13" s="8"/>
+      <c r="BT13" s="8"/>
     </row>
-    <row r="14" spans="1:176" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="13">
-        <v>0</v>
-      </c>
-      <c r="B14" s="25">
+    <row r="14" spans="1:168" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="23">
         <v>8</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>1432</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20" t="s">
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18" t="s">
         <v>1239</v>
       </c>
-      <c r="AB14" s="20" t="s">
+      <c r="Z14" s="18" t="s">
         <v>1240</v>
       </c>
-      <c r="AC14" s="20" t="s">
+      <c r="AA14" s="18" t="s">
         <v>1189</v>
       </c>
-      <c r="AD14" s="20" t="s">
-        <v>1241</v>
-      </c>
-      <c r="AE14" s="20" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AF14" s="20" t="s">
+      <c r="AB14" s="18" t="s">
         <v>1242</v>
       </c>
-      <c r="AG14" s="20" t="s">
+      <c r="AC14" s="18" t="s">
         <v>1189</v>
       </c>
-      <c r="AH14" s="20" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AI14" s="20" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AJ14" s="20" t="s">
+      <c r="AD14" s="18" t="s">
         <v>1244</v>
       </c>
-      <c r="AK14" s="20" t="s">
+      <c r="AE14" s="18" t="s">
         <v>1189</v>
       </c>
-      <c r="AL14" s="20" t="s">
-        <v>1245</v>
-      </c>
-      <c r="AM14" s="20" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AN14" s="20">
+      <c r="AF14" s="18">
         <v>104369</v>
       </c>
-      <c r="AO14" s="20" t="s">
+      <c r="AG14" s="18" t="s">
         <v>1203</v>
       </c>
-      <c r="AP14" s="20"/>
+      <c r="AH14" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="BR14" s="8"/>
+      <c r="BS14" s="8"/>
+      <c r="BT14" s="8"/>
     </row>
-    <row r="15" spans="1:176" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="13">
-        <v>0</v>
-      </c>
-      <c r="B15" s="25">
+    <row r="15" spans="1:168" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="11">
+        <v>3</v>
+      </c>
+      <c r="B15" s="23">
         <v>9</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>522</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21" t="s">
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19" t="s">
         <v>1246</v>
       </c>
-      <c r="AB15" s="21" t="s">
+      <c r="Z15" s="19" t="s">
         <v>1247</v>
       </c>
-      <c r="AC15" s="21" t="s">
+      <c r="AA15" s="19" t="s">
         <v>1189</v>
       </c>
-      <c r="AD15" s="21" t="s">
-        <v>1248</v>
-      </c>
-      <c r="AE15" s="21" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AF15" s="21" t="s">
+      <c r="AB15" s="19" t="s">
         <v>1249</v>
       </c>
-      <c r="AG15" s="21" t="s">
+      <c r="AC15" s="19" t="s">
         <v>1189</v>
       </c>
-      <c r="AH15" s="21" t="s">
-        <v>1250</v>
-      </c>
-      <c r="AI15" s="21" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AJ15" s="21" t="s">
+      <c r="AD15" s="19" t="s">
         <v>1251</v>
       </c>
-      <c r="AK15" s="21" t="s">
+      <c r="AE15" s="19" t="s">
         <v>1189</v>
       </c>
-      <c r="AL15" s="21" t="s">
-        <v>1252</v>
-      </c>
-      <c r="AM15" s="21" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AN15" s="21">
+      <c r="AF15" s="19">
         <v>104370</v>
       </c>
-      <c r="AO15" s="21" t="s">
+      <c r="AG15" s="19" t="s">
         <v>1203</v>
       </c>
-      <c r="AP15" s="21"/>
+      <c r="AH15" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="BR15" s="8"/>
+      <c r="BS15" s="8"/>
+      <c r="BT15" s="8"/>
     </row>
-    <row r="16" spans="1:176" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="13">
-        <v>0</v>
-      </c>
-      <c r="B16" s="25">
+    <row r="16" spans="1:168" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="11">
+        <v>3</v>
+      </c>
+      <c r="B16" s="23">
         <v>10</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>798</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23" t="s">
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21" t="s">
         <v>1253</v>
       </c>
-      <c r="AB16" s="23" t="s">
+      <c r="Z16" s="21" t="s">
         <v>1254</v>
       </c>
-      <c r="AC16" s="23" t="s">
+      <c r="AA16" s="21" t="s">
         <v>1189</v>
       </c>
-      <c r="AD16" s="23" t="s">
-        <v>1255</v>
-      </c>
-      <c r="AE16" s="23" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AF16" s="23" t="s">
+      <c r="AB16" s="21" t="s">
         <v>1256</v>
       </c>
-      <c r="AG16" s="23" t="s">
+      <c r="AC16" s="21" t="s">
         <v>1189</v>
       </c>
-      <c r="AH16" s="23" t="s">
-        <v>1257</v>
-      </c>
-      <c r="AI16" s="23" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AJ16" s="23" t="s">
+      <c r="AD16" s="21" t="s">
         <v>1258</v>
       </c>
-      <c r="AK16" s="23" t="s">
+      <c r="AE16" s="21" t="s">
         <v>1189</v>
       </c>
-      <c r="AL16" s="23" t="s">
-        <v>1259</v>
-      </c>
-      <c r="AM16" s="23" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AN16" s="23">
+      <c r="AF16" s="21">
         <v>104371</v>
       </c>
-      <c r="AO16" s="23" t="s">
+      <c r="AG16" s="21" t="s">
         <v>1203</v>
       </c>
-      <c r="AP16" s="23"/>
+      <c r="AH16" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="BR16" s="8"/>
+      <c r="BS16" s="8"/>
+      <c r="BT16" s="8"/>
     </row>
-    <row r="17" spans="1:147" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="13">
+    <row r="17" spans="1:164" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="11">
+        <v>3</v>
+      </c>
+      <c r="B17" s="23">
+        <v>11</v>
+      </c>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20" t="s">
+        <v>1260</v>
+      </c>
+      <c r="Z17" s="20" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AA17" s="20" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AB17" s="20" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AC17" s="20" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AD17" s="20" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AE17" s="20" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AF17" s="20">
+        <v>104372</v>
+      </c>
+      <c r="AG17" s="20" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AH17" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="BR17" s="8"/>
+      <c r="BS17" s="8"/>
+      <c r="BT17" s="8"/>
+    </row>
+    <row r="18" spans="1:164" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="11">
+        <v>3</v>
+      </c>
+      <c r="B18" s="23">
+        <v>12</v>
+      </c>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Z18" s="7" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AA18" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AB18" s="7" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AC18" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AD18" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AE18" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>104373</v>
+      </c>
+      <c r="AG18" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AH18" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="BR18" s="8"/>
+      <c r="BS18" s="8"/>
+      <c r="BT18" s="8"/>
+    </row>
+    <row r="19" spans="1:164" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="14">
+        <v>4</v>
+      </c>
+      <c r="B19" s="29">
         <v>0</v>
       </c>
-      <c r="B17" s="25">
-        <v>11</v>
-      </c>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22" t="s">
-        <v>1260</v>
-      </c>
-      <c r="AB17" s="22" t="s">
-        <v>1261</v>
-      </c>
-      <c r="AC17" s="22" t="s">
+      <c r="D19" s="14" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E19" s="30">
+        <v>2057</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>1187</v>
+      </c>
+      <c r="M19" s="31">
+        <v>44581</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>1361</v>
+      </c>
+      <c r="O19" s="14" t="s">
         <v>1189</v>
       </c>
-      <c r="AD17" s="22" t="s">
-        <v>1262</v>
-      </c>
-      <c r="AE17" s="22" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AF17" s="22" t="s">
-        <v>1263</v>
-      </c>
-      <c r="AG17" s="22" t="s">
+      <c r="P19" s="14" t="s">
+        <v>1190</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>1191</v>
+      </c>
+      <c r="Z19" s="14" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AA19" s="14" t="s">
         <v>1189</v>
       </c>
-      <c r="AH17" s="22" t="s">
-        <v>1264</v>
-      </c>
-      <c r="AI17" s="22" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AJ17" s="22" t="s">
-        <v>1265</v>
-      </c>
-      <c r="AK17" s="22" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AL17" s="22" t="s">
-        <v>1266</v>
-      </c>
-      <c r="AM17" s="22" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AN17" s="22">
-        <v>104372</v>
-      </c>
-      <c r="AO17" s="22" t="s">
-        <v>1203</v>
-      </c>
-      <c r="AP17" s="22"/>
+      <c r="AF19" s="14">
+        <v>9000006688388</v>
+      </c>
+      <c r="AG19" s="14" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH19" s="14" t="s">
+        <v>1194</v>
+      </c>
+      <c r="BR19" s="14" t="s">
+        <v>1275</v>
+      </c>
+      <c r="BS19" s="14" t="s">
+        <v>1276</v>
+      </c>
+      <c r="BT19" s="14" t="s">
+        <v>1277</v>
+      </c>
+      <c r="EI19" s="32"/>
     </row>
-    <row r="18" spans="1:147" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="13">
-        <v>0</v>
-      </c>
-      <c r="B18" s="25">
-        <v>12</v>
-      </c>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9" t="s">
-        <v>1267</v>
-      </c>
-      <c r="AB18" s="9" t="s">
-        <v>1268</v>
-      </c>
-      <c r="AC18" s="9" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AD18" s="9" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AE18" s="9" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AF18" s="9" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AG18" s="9" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AH18" s="9" t="s">
-        <v>1271</v>
-      </c>
-      <c r="AI18" s="9" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AJ18" s="9" t="s">
-        <v>1272</v>
-      </c>
-      <c r="AK18" s="9" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AL18" s="9" t="s">
-        <v>1273</v>
-      </c>
-      <c r="AM18" s="9" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AN18" s="9">
-        <v>104373</v>
-      </c>
-      <c r="AO18" s="9" t="s">
-        <v>1203</v>
-      </c>
-      <c r="AP18" s="9"/>
-    </row>
-    <row r="19" spans="1:147" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="13">
+    <row r="20" spans="1:164" s="3" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="11">
+        <v>4</v>
+      </c>
+      <c r="B20" s="23">
         <v>1</v>
       </c>
-      <c r="B19" s="25">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2001301</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E19" s="6">
-        <v>2057</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>1154</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>1187</v>
-      </c>
-      <c r="M19" s="4">
-        <v>44581</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>1369</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>1189</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>1190</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9" t="s">
-        <v>1192</v>
-      </c>
-      <c r="AC19" s="9" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="9"/>
-      <c r="AL19" s="9"/>
-      <c r="AM19" s="9"/>
-      <c r="AN19" s="9">
-        <v>9000006688388</v>
-      </c>
-      <c r="AO19" s="9" t="s">
-        <v>1193</v>
-      </c>
-      <c r="AP19" s="9" t="s">
-        <v>1194</v>
-      </c>
-      <c r="BZ19" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="CA19" s="3" t="s">
-        <v>1276</v>
-      </c>
-      <c r="CB19" s="3" t="s">
-        <v>1277</v>
-      </c>
-      <c r="EQ19" s="4"/>
-    </row>
-    <row r="20" spans="1:147" s="3" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="13">
-        <v>1</v>
-      </c>
-      <c r="B20" s="25">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>746</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13" t="s">
+      <c r="M20" s="25"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11" t="s">
         <v>1195</v>
       </c>
-      <c r="AB20" s="13" t="s">
+      <c r="Z20" s="11" t="s">
         <v>1196</v>
       </c>
-      <c r="AC20" s="13" t="s">
+      <c r="AA20" s="11" t="s">
         <v>1189</v>
       </c>
-      <c r="AD20" s="13" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AE20" s="13" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AF20" s="13" t="s">
+      <c r="AB20" s="11" t="s">
         <v>1199</v>
       </c>
-      <c r="AG20" s="13" t="s">
+      <c r="AC20" s="11" t="s">
         <v>1189</v>
       </c>
-      <c r="AH20" s="13" t="s">
-        <v>1200</v>
-      </c>
-      <c r="AI20" s="13" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AJ20" s="13" t="s">
+      <c r="AD20" s="11" t="s">
         <v>1201</v>
       </c>
-      <c r="AK20" s="13" t="s">
+      <c r="AE20" s="11" t="s">
         <v>1189</v>
       </c>
-      <c r="AL20" s="13" t="s">
-        <v>1202</v>
-      </c>
-      <c r="AM20" s="13" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AN20" s="13">
+      <c r="AF20" s="11">
         <v>104364</v>
       </c>
-      <c r="AO20" s="13" t="s">
+      <c r="AG20" s="11" t="s">
         <v>1203</v>
       </c>
-      <c r="AP20" s="13"/>
+      <c r="AH20" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="FH20" s="14"/>
     </row>
-    <row r="21" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:164" x14ac:dyDescent="0.45">
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+    </row>
+    <row r="22" spans="1:164" x14ac:dyDescent="0.45">
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+    </row>
+    <row r="23" spans="1:164" x14ac:dyDescent="0.45">
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14062,15 +14251,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EB2C975-2913-4C3A-889A-00882E1A3AC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="ad75b2e1-b3f2-475e-b013-d1c3da34d894"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>